--- a/biology/Botanique/Legousia/Legousia.xlsx
+++ b/biology/Botanique/Legousia/Legousia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Legousia (les Spéculaires ou Légousies[1]) est un genre de plantes herbacées vivaces ou bisannuelles de la famille des Campanulacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Legousia (les Spéculaires ou Légousies) est un genre de plantes herbacées vivaces ou bisannuelles de la famille des Campanulacées.
 Ce genre a été dédié au botaniste Bénigne Le Gouz de Gerland, qui fonda en 1773 le Jardin Botanique de la ville de Dijon.
 Il existe une quinzaine d'espèces du genre Legousia, réparties en Europe et dans le bassin méditerranéeen.
 </t>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 avr. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 avr. 2012) :
 Legousia falcata (Ten.) Fritsch ex Janch., Mitt. Naturwiss. Vereins Univ. Wien, n.s. (1907)
 Legousia hybrida (L.) Delarbre, Fl. Auvergne (1800)
 Legousia julianii (Batt.) Briq. (1931)
